--- a/builds/development/data/maindata.xlsx
+++ b/builds/development/data/maindata.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="1640" windowWidth="25040" windowHeight="14420" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="560" yWindow="1640" windowWidth="25040" windowHeight="14420" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="values_JunSep2015" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="source" sheetId="2" r:id="rId2"/>
+    <sheet name="layout" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="120">
   <si>
     <t>neighborhood</t>
   </si>
@@ -334,7 +335,52 @@
     <t>Ventura Village</t>
   </si>
   <si>
-    <t>Source: Star Tribune analysis</t>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>values_JunSep2015</t>
+  </si>
+  <si>
+    <t>City of Minneapolis Assessor</t>
+  </si>
+  <si>
+    <t>Source: City of Minneapolis Assessor</t>
+  </si>
+  <si>
+    <t>Property value metrics by Minneapolis neighborhoods, June to September 2015</t>
+  </si>
+  <si>
+    <t>Minneapolis neighborhood name</t>
+  </si>
+  <si>
+    <t>WOW score</t>
+  </si>
+  <si>
+    <t>Average sales price</t>
+  </si>
+  <si>
+    <t>Average listing price</t>
+  </si>
+  <si>
+    <t>Change in average sales price</t>
+  </si>
+  <si>
+    <t>Median sales price</t>
+  </si>
+  <si>
+    <t>Change in media sales price</t>
+  </si>
+  <si>
+    <t>Price per square foot</t>
+  </si>
+  <si>
+    <t>Change in price per square foot</t>
   </si>
 </sst>
 </file>
@@ -344,7 +390,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -362,6 +408,24 @@
     <font>
       <sz val="8"/>
       <color rgb="FF666666"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -409,10 +473,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -430,8 +498,13 @@
     <xf numFmtId="4" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -765,7 +838,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -3527,6 +3600,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3537,22 +3611,149 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="11" customFormat="1">
+      <c r="A6" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
